--- a/biology/Botanique/Ceratocystis/Ceratocystis.xlsx
+++ b/biology/Botanique/Ceratocystis/Ceratocystis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratocystis est un genre de champignons ascomycètes de la famille des Ceratocystidaceae.
 De nombreuses espèces de ce genre sont des agents pathogènes des plantes, qui attaquent en particulier les arbres fruitiers et forestiers, d'autres sont simplement saprophytes.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (2 novembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (2 novembre 2014) :
 Rhynchophoma P. Karst., Hedwigia (1884) ;
 Mycorhynchella Höhn., Hedwigia (1918) ;
 Chaetonaemosphaera Schwarzman, (1968).</t>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 novembre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 novembre 2014) :
 Ceratocystis acaciivora
 Ceratocystis acericola
 Ceratocystis acoma
@@ -682,7 +698,7 @@
 Ceratocystis vesca
 Ceratocystis virescens
 Ceratocystis zombamontana
-Selon Index Fungorum                                      (2 novembre 2014)[4] :
+Selon Index Fungorum                                      (2 novembre 2014) :
 Ceratocystis acaciivora Tarigan &amp; M. van Wyk 2011
 Ceratocystis acericola H.D. Griffin 1968
 Ceratocystis acoma (V.V. Mill. &amp; Tcherntz.) C. Moreau 1952
@@ -802,7 +818,7 @@
 Ceratocystis schrenkiana (Hedgc.) C. Moreau 1952
 Ceratocystis smalleyi J.A. Johnson &amp; T.C. Harr. 2006
 Ceratocystis spinifera Olchow. &amp; J. Reid 1974
-Selon ITIS      (2 novembre 2014)[1] :
+Selon ITIS      (2 novembre 2014) :
 Ceratocystis fimbriata J. B. Ellis &amp; Halsted</t>
         </is>
       </c>
@@ -831,9 +847,11 @@
           <t>Liste des genres, espèces et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 novembre 2014)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 novembre 2014) :
 Ceratocystis acaciivora
 Ceratocystis adiposa
 Ceratocystis albifundus
@@ -914,7 +932,7 @@
 Thielaviopsis ovoidea
 Thielaviopsis populi
 Thielaviopsis thielavioides
-Selon Paleobiology Database                   (2 novembre 2014)[6] :
+Selon Paleobiology Database                   (2 novembre 2014) :
 Ceratocystis prosthiakida</t>
         </is>
       </c>
